--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3954628.728051427</v>
+        <v>3951611.137650491</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051483</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7600729.292543279</v>
+        <v>7600729.29254328</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>115.3547978593235</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>262.184412101832</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.28058557418468</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>65.2453208166456</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>123.022242497342</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.8588907202408</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>171.9664138887665</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>317.457446223754</v>
+        <v>63.51521358848562</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>76.23131709117332</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.68466379593747</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750058</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>49.38162151975434</v>
+        <v>33.35146980186088</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.989963457833695</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.2541671901499</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002198</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>47.20011114811113</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.7955476484048</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2561,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2606,19 +2606,19 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.8084418793349</v>
       </c>
       <c r="F28" t="n">
-        <v>36.31437750815321</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539631</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.700090052299</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689871</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857162</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692843</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329051</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373707</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789539</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522991</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689871</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857162</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692843</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329051</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789539</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3487,7 +3487,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689871</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857162</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692843</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329051</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789539</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415457</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3797,7 +3797,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689871</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857162</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692843</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329051</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789539</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415205</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539649</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>22.56861052051207</v>
+        <v>204.7370735104577</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.946714969783</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.946714969783</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1127.681016363033</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>741.8927637647885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.946714969783</v>
+        <v>1982.475507338148</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.946714969783</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.611298585128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>250.611298585128</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286581</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>250.611298585128</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1082.67330119093</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1082.67330119093</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>724.4076025841791</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>338.6193499859349</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>331.6738492367314</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1469.273141255051</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>269.7756312415667</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>119.6589918292309</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.153685885794</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C8" t="n">
-        <v>869.1911689453821</v>
+        <v>876.077118489279</v>
       </c>
       <c r="D8" t="n">
-        <v>869.1911689453821</v>
+        <v>517.8114198825285</v>
       </c>
       <c r="E8" t="n">
-        <v>869.1911689453821</v>
+        <v>132.0231672842843</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.753525949915</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>396.6060931634762</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C10" t="n">
-        <v>396.6060931634762</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>621.7107346649318</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>621.7107346649318</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="V10" t="n">
-        <v>686.0232632004368</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="W10" t="n">
-        <v>396.6060931634762</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="X10" t="n">
-        <v>396.6060931634762</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.6060931634762</v>
+        <v>394.4025473335336</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,28 +5054,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5343297994515</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015115</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079756</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011502</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035281</v>
+        <v>614.6238123952635</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.921157035281</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.921157035281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.921157035281</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247877</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038346</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324593</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954989</v>
       </c>
       <c r="X16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>546.46840711167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>398.5553135292769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>251.6653660313665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262962</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765207</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>531.397718270634</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>531.397718270634</v>
       </c>
       <c r="X19" t="n">
-        <v>696.5850465240057</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y19" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5835,13 +5835,13 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O21" t="n">
         <v>1808.163466324677</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011502</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952635</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614725</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799369</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471198</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1017.064856369033</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1017.064856369033</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>727.6476863320726</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>499.6581354340553</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905254</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.8982808624608</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C28" t="n">
-        <v>133.8982808624608</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D28" t="n">
-        <v>133.8982808624608</v>
+        <v>238.4377398232504</v>
       </c>
       <c r="E28" t="n">
-        <v>133.8982808624608</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6415,19 +6415,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>354.6908600059909</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X28" t="n">
-        <v>354.6908600059909</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.8982808624608</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,13 +6461,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>3446.276123502708</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>3776.138751166741</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>3481.793971740469</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>3381.677879852603</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>3300.381331480308</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>3221.288328937956</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>3143.218472480087</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103131</v>
+        <v>3043.863241839948</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>2962.265324427933</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>2919.550824089921</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>2999.384087782175</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>3217.020063255131</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>3532.182679494605</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>3871.199993490132</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>4209.194673746024</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>4510.520222979765</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>4754.570558813792</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>4818.599560616159</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>4687.499641571751</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>4532.534317401299</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>4312.225769654898</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>4126.361372489052</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>3905.764293492133</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>3746.594833634157</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010318</v>
+        <v>3594.622345530668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822467</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862499</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045224</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010335</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6932,22 +6932,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,7 +6959,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O36" t="n">
         <v>1808.163466324677</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.677879852602</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>3300.381331480307</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>3221.288328937956</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>3143.218472480086</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>3043.863241839948</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>2962.265324427932</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>2919.550824089921</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>2999.384087782175</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>3217.020063255131</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>3532.182679494605</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>3871.199993490132</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>4209.194673746024</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>4510.520222979765</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>4754.570558813793</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>4818.59956061616</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>4687.499641571753</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>4532.534317401301</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>4312.2257696549</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>4126.361372489054</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>3905.764293492134</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>3746.594833634158</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>3594.622345530669</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986521</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7421,34 +7421,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7628,58 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
         <v>3931.29497012173</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7734,10 +7734,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
         <v>265.3924131404652</v>
@@ -7795,13 +7795,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7837,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1141.259175625888</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="V46" t="n">
-        <v>886.5746874200013</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W46" t="n">
-        <v>597.1575173830407</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X46" t="n">
-        <v>597.1575173830407</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.1575173830407</v>
+        <v>447.040877970705</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>104.8749102765737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>199.7396287231149</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,10 +11069,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>180.0237016735871</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442188</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338332</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.3280338692828</v>
+        <v>192.3581855871761</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>162.5036050055439</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.45548819888708</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338328</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>178.509544240926</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>48.75693659211572</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633774</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642718</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037926</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>7.125262335198329</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.62552076723432</v>
       </c>
       <c r="F28" t="n">
-        <v>109.106670514778</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24655,16 +24655,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>263.6687418780652</v>
+        <v>81.50027888811962</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
         <v>742955.213501647</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="L2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="M2" t="n">
-        <v>779989.6813710697</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="P2" t="n">
         <v>742955.2135016469</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371259</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143925</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430945</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143921</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>37130.28789562997</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37130.28789563</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37130.28789563</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37130.28789563</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37130.28789563</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26497,16 +26497,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49197.0196486403</v>
+        <v>-49612.23415810766</v>
       </c>
       <c r="C6" t="n">
-        <v>540770.8595659042</v>
+        <v>540355.645056437</v>
       </c>
       <c r="D6" t="n">
-        <v>540770.8595659042</v>
+        <v>540355.6450564369</v>
       </c>
       <c r="E6" t="n">
-        <v>111096.3504217245</v>
+        <v>110762.1814545947</v>
       </c>
       <c r="F6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314912</v>
       </c>
       <c r="G6" t="n">
-        <v>636256.3868986208</v>
+        <v>635922.2179314916</v>
       </c>
       <c r="H6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314913</v>
       </c>
       <c r="I6" t="n">
-        <v>636256.3868986211</v>
+        <v>635922.2179314911</v>
       </c>
       <c r="J6" t="n">
-        <v>459833.167706028</v>
+        <v>459498.9987388983</v>
       </c>
       <c r="K6" t="n">
-        <v>590638.7755517014</v>
+        <v>590304.6065845719</v>
       </c>
       <c r="L6" t="n">
-        <v>645144.287655414</v>
+        <v>644810.1186882845</v>
       </c>
       <c r="M6" t="n">
-        <v>510343.272421577</v>
+        <v>510009.1034544474</v>
       </c>
       <c r="N6" t="n">
-        <v>645144.287655414</v>
+        <v>644810.1186882842</v>
       </c>
       <c r="O6" t="n">
-        <v>645144.287655414</v>
+        <v>644810.1186882843</v>
       </c>
       <c r="P6" t="n">
-        <v>636256.3868986208</v>
+        <v>635922.2179314912</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545562</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>291.5212478823879</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>107.546688576637</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>99.33488744402767</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>317.4885208468349</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>290.761927523453</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>136.3119981215544</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>53.06869156931782</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>89.41859951795743</v>
+        <v>343.3608321532258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>70.4338748889845</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>210.4529795278905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.500666257925331e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964074</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34784,10 +34784,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>146.7850892314804</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187492</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187492</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,7 +36212,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187492</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,13 +36449,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789727</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187492</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>482.1033309642231</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>609.7603912467498</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,7 +37397,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,10 +37789,10 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>462.3874039146953</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520627</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4026709.923062622</v>
+        <v>4019692.908170909</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>66.58496257157209</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>310.0246273224403</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.05778639582302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>33.42595480754878</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>7.944621118398112</v>
       </c>
       <c r="S5" t="n">
-        <v>10.19412901833867</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>13.80890171427169</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>10.70305333391218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.29842298468323</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>65.51651982872606</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527403</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.0909333733117</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.357423456981356</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.53884904317127</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T28" t="n">
-        <v>73.36473124954773</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>149.0799667719507</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051966</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>79.09979270925078</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>110.6907158639456</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>210.968521252134</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>149.0799667719512</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>191.1743800672358</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>121.2005197714474</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>121.2005197714474</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>694.3653934917385</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>439.6809052858516</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>439.6809052858516</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2689.124221201659</v>
       </c>
       <c r="S5" t="n">
-        <v>2686.851990999699</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="T5" t="n">
-        <v>2686.851990999699</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="U5" t="n">
-        <v>2686.851990999699</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="V5" t="n">
-        <v>2355.789103656128</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.789103656128</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="X5" t="n">
-        <v>2355.789103656128</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1965.649771680316</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.89136739033586</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>67.89136739033586</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>717.3178192226845</v>
       </c>
       <c r="X7" t="n">
-        <v>67.89136739033586</v>
+        <v>489.3282683246672</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.89136739033586</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2639.271896084199</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2639.271896084199</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2639.271896084199</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2308.209008740628</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4983,19 +4983,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>343.360151857325</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
         <v>343.360151857325</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028591</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>696.5850465240062</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C13" t="n">
-        <v>527.6488635960993</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D13" t="n">
-        <v>377.5322241837636</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609669</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240062</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X13" t="n">
-        <v>696.5850465240062</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.5850465240062</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="14">
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5302,28 +5302,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5524,40 +5524,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.4440896858637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>543.5079067579568</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>393.391267345621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>245.4781737632279</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>98.58822626531756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293938</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>933.2366688293938</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>933.2366688293938</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.4440896858637</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K21" t="n">
-        <v>326.2492756170066</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>940.1463453738954</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>496.6650364395587</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C22" t="n">
-        <v>496.6650364395587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D22" t="n">
-        <v>496.6650364395587</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765193</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765193</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395587</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X22" t="n">
-        <v>496.6650364395587</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y22" t="n">
-        <v>496.6650364395587</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528587</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880509</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1113.815367894323</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1113.815367894323</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1113.815367894323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>1113.815367894323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.815367894323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.0227887507926</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6460,43 +6460,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L30" t="n">
-        <v>709.4934589365143</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M30" t="n">
-        <v>1016.813592216476</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880509</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,31 +6876,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1348.33044553573</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1124.545030325236</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>835.416391538794</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,16 +6952,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,7 +6973,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C37" t="n">
-        <v>585.9584193027001</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E37" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7125,22 +7125,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.311772267568</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>754.894602230607</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y37" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.107466654927</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.107466654927</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.107466654927</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>1132.42297844904</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>843.0058084120794</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>615.0162575140621</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365139</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880508</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,31 +7587,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>898.7925182488384</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>609.3753482118777</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>416.2699138005285</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863221</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.7396287231143</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K21" t="n">
-        <v>38.86002301949802</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298099</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>85.30006332127745</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.30006332127742</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>85.30006332127745</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127745</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>85.30006332127745</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>14.34302927325751</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338506</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271366</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.1361450063962</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>62.8951136033979</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T28" t="n">
-        <v>148.1828298088415</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542477</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>48.84084321165253</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>69.51568030896158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>87.23009411965766</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>75.26883114644335</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>103.0576765518768</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>34.53527532180138</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639904.3715111974</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="G2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="F2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.2135016475</v>
       </c>
       <c r="I2" t="n">
         <v>742955.2135016475</v>
@@ -26340,22 +26340,22 @@
         <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="N2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="O2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.148837678054153e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925925</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.66962143901</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143918</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.2341581076</v>
+        <v>-49612.23415810746</v>
       </c>
       <c r="C6" t="n">
+        <v>540355.6450564369</v>
+      </c>
+      <c r="D6" t="n">
         <v>540355.6450564368</v>
       </c>
-      <c r="D6" t="n">
-        <v>540355.645056437</v>
-      </c>
       <c r="E6" t="n">
-        <v>110762.1814545949</v>
+        <v>109787.5901948734</v>
       </c>
       <c r="F6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717701</v>
       </c>
       <c r="G6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.6266717698</v>
       </c>
       <c r="H6" t="n">
-        <v>635922.2179314918</v>
+        <v>634947.6266717699</v>
       </c>
       <c r="I6" t="n">
-        <v>635922.2179314918</v>
+        <v>634947.6266717701</v>
       </c>
       <c r="J6" t="n">
-        <v>459498.9987388991</v>
+        <v>458524.4074791771</v>
       </c>
       <c r="K6" t="n">
-        <v>635922.2179314912</v>
+        <v>634947.6266717698</v>
       </c>
       <c r="L6" t="n">
-        <v>635922.2179314916</v>
+        <v>634947.62667177</v>
       </c>
       <c r="M6" t="n">
-        <v>501121.2026976544</v>
+        <v>500146.6114379327</v>
       </c>
       <c r="N6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.6266717697</v>
       </c>
       <c r="O6" t="n">
-        <v>635922.2179314914</v>
+        <v>634947.62667177</v>
       </c>
       <c r="P6" t="n">
-        <v>635922.2179314918</v>
+        <v>634947.62667177</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="F4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="I4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.34635367328916</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>59.70647335602871</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>168.7741937861143</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>252.855919434429</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>46.5337814564136</v>
       </c>
       <c r="S5" t="n">
-        <v>164.2215837906329</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>31.39105747426531</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>275.5788209080656</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.33357018799795</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>117.1172898242883</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>81.1486721514318</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28344,10 +28344,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28386,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28569,19 +28569,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.436047097567692e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,16 +31761,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31779,19 +31779,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31846,19 +31846,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,19 +31931,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31952,7 +31952,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35430,10 +35430,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35579,16 +35579,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178469</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>482.1033309642226</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K21" t="n">
-        <v>189.4354616074374</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761842</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>127.2102422761841</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761842</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761842</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>127.2102422761842</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4019692.908170909</v>
+        <v>4024632.171019942</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>349.4028632325519</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>66.58496257157209</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.05778639582302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>120.4120358099647</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>7.944621118398112</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>323.1973192220553</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>10.70305333391218</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>57.29842298468323</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>238.8517495102342</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>54.46079155833866</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>21.12833712222987</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T25" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>200.5701849660531</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051966</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>122.6519788371604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002183</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>149.0799667719512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>567.286643657864</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1643278732605</v>
+        <v>560.3411429086606</v>
       </c>
       <c r="G2" t="n">
-        <v>121.2005197714474</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>121.2005197714474</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4375,7 +4375,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>175.5713008203288</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.1897464970881</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="5">
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,22 +4591,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2689.124221201659</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2512.946733515829</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
         <v>2139.480975254749</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>717.3178192226845</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>717.3178192226845</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>717.3178192226845</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3282683246672</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2639.271896084199</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2639.271896084199</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2639.271896084199</v>
+        <v>2279.707209887711</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.209008740628</v>
+        <v>1948.644322544141</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.440353470514</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="X8" t="n">
-        <v>1581.974595209434</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="Y8" t="n">
-        <v>1191.835263233623</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.712065060056</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5029,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028591</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765193</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706325</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336719</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X13" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.2170914602859</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,19 +5290,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6074,7 +6074,7 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
         <v>1247.466478653857</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>634.0455001582209</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6387,10 +6387,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6411,16 +6411,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,61 +6454,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>634.0455001582209</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655742</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286137</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305963</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870662</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582209</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6861,10 +6861,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7432,10 +7432,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>223.1552313137082</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>644.675512255521</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,10 +7809,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>15.83804904622878</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229574</v>
+        <v>409.7003683229572</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>85.30006332127742</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987297922</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735866</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599039</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>85.30006332127745</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.0093062015981</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338506</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542477</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>18.01446838604164</v>
       </c>
     </row>
     <row r="32">
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>103.0576765518768</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>639904.3715111975</v>
+        <v>639904.3715111976</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639904.3715111976</v>
+        <v>639904.3715111975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="E2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.213501647</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016473</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054153e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26438,22 +26438,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143901</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="O4" t="n">
         <v>15045.66962143909</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49612.23415810746</v>
+        <v>-49612.23415810778</v>
       </c>
       <c r="C6" t="n">
+        <v>540355.645056437</v>
+      </c>
+      <c r="D6" t="n">
         <v>540355.6450564369</v>
       </c>
-      <c r="D6" t="n">
-        <v>540355.6450564368</v>
-      </c>
       <c r="E6" t="n">
-        <v>109787.5901948734</v>
+        <v>110664.7223286231</v>
       </c>
       <c r="F6" t="n">
-        <v>634947.6266717701</v>
+        <v>635824.7588055193</v>
       </c>
       <c r="G6" t="n">
-        <v>634947.6266717698</v>
+        <v>635824.7588055192</v>
       </c>
       <c r="H6" t="n">
-        <v>634947.6266717699</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="I6" t="n">
-        <v>634947.6266717701</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="J6" t="n">
-        <v>458524.4074791771</v>
+        <v>459401.5396129266</v>
       </c>
       <c r="K6" t="n">
-        <v>634947.6266717698</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="L6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="M6" t="n">
-        <v>500146.6114379327</v>
+        <v>501023.743571682</v>
       </c>
       <c r="N6" t="n">
-        <v>634947.6266717697</v>
+        <v>635824.7588055194</v>
       </c>
       <c r="O6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055196</v>
       </c>
       <c r="P6" t="n">
-        <v>634947.62667177</v>
+        <v>635824.7588055196</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.38130678824308</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>85.34635367328916</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.7741937861143</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>26.02192683660444</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>46.5337814564136</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>46.53378145641369</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>275.5788209080656</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>117.1172898242883</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>12.37241799805514</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>231.8210826836391</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33195,13 +33195,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33216,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33344,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33356,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34143,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34164,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34292,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34304,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34380,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34401,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34529,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34541,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>326.262426096695</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36840,22 +36840,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>127.2102422761841</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37317,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349491</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586608</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37554,19 +37554,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37791,19 +37791,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>127.2102422761842</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37870,19 +37870,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38028,19 +38028,19 @@
         <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
